--- a/biology/Médecine/André_Dieudonné_Trumper/André_Dieudonné_Trumper.xlsx
+++ b/biology/Médecine/André_Dieudonné_Trumper/André_Dieudonné_Trumper.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Dieudonn%C3%A9_Trumper</t>
+          <t>André_Dieudonné_Trumper</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">André Dieudonné Trumper, né à Bruxelles le 1er février 1794 et y décédé le 18 octobre 1874, est un médecin, philanthrope et hygiéniste belge.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Dieudonn%C3%A9_Trumper</t>
+          <t>André_Dieudonné_Trumper</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1813, il embarque sur le vaisseau le César, comme chirurgien auxiliaire de troisième classe.
 Il fit ses études à la brillante université d'État de Louvain, où, outre d'ex-professeurs de l'ancienne université de Louvain, enseignaient de nombreux professeurs allemands formés à la doctrine de Fichte, et qui forma plus de huit mille étudiants qui furent appelés à fonder la Belgique et à en former les premiers cadres mais dont les noms, tout comme l'existence même de l'université d'État de Louvain ont été jetés dans l'oubli.
@@ -521,8 +535,8 @@
 Lors des épidémies de choléra de 1832-1833 et 1849, qui convainquirent le bourgmestre Jules Anspach de faire voûter la Senne, il visita sans relâche les quartiers défavorisés.
 Membre effectif de la Société des sciences médicales et naturelles de Bruxelles, il publia plusieurs travaux scientifiques.
 Il fut également très actif dans la franc-maçonnerie, membre de la loge Les Amis philanthropes et vénérable de la loge des Vrais Amis de l'union et du progrès réunis en 1830-1840.
-Il figure sur la liste des fondateurs de l'université libre de Bruxelles[1].
-Il était le frère du général Nicolas Joseph Trumper, philhellène, connu comme excellent chanteur amateur[2].
+Il figure sur la liste des fondateurs de l'université libre de Bruxelles.
+Il était le frère du général Nicolas Joseph Trumper, philhellène, connu comme excellent chanteur amateur.
 </t>
         </is>
       </c>
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Dieudonn%C3%A9_Trumper</t>
+          <t>André_Dieudonné_Trumper</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Ses publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dissertatio medica inauguralis de Ophthalmia, quam annuente Summo Numine, ex auctoritate rectoris magnifici Francisci Josephi Harbaur, etc. in Academia Lovaniensi, etc., Louvain, des presses de Vanlinthout et Vandezande, 1819.
 Mémoire sur l'emploi des sangsues dans les maladies, dans Bibliothèque médicale nationale et étrangère, Bruxelles, tome I, 1824, pp. 249-287.
